--- a/medicine/Enfance/Le_Journal_intime_de_Georgia_Nicolson/Le_Journal_intime_de_Georgia_Nicolson.xlsx
+++ b/medicine/Enfance/Le_Journal_intime_de_Georgia_Nicolson/Le_Journal_intime_de_Georgia_Nicolson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal intime de Georgia Nicolson (Confessions of Georgia Nicolson) est une série de livres visant le public adolescent écrite par l'auteur Louise Rennison entre 1999 et 2009. Elle relate les aventures d'une adolescente, Georgia, sur un ton que son public (plus large que celui visé par l'auteur) revendique comme étant le plus décapant de ces dix dernières années.
@@ -513,7 +525,9 @@
           <t>Tomes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mon nez, mon chat, l'amour et… moi (Angus, Thongs and Full-Frontal Snogging)
 Le bonheur est au bout de l'élastique (It's OK, I'm Wearing Really Big Knickers - US : On the Bright Side, I'm Now the Girlfriend of a Sex God)
@@ -552,7 +566,9 @@
           <t>Résumé de l'histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Georgia a 14 ans, et sa vie est un enfer ! Non seulement celui qu'elle surnomme Super-Canon sort avec une cruche prénommée Lindsay, mais surtout, il y a cette chose au milieu de son visage : son nez.
 </t>
@@ -583,7 +599,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce livre de 245 pages[réf. nécessaire] racontant la vie d'une adolescente comme les autres, est présenté comme un journal intime : mois par mois, jour par jour et même par heure. Georgia donne un titre à chacun de ses mois.
 </t>
@@ -614,7 +632,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Auteur : Louise Rennison
 Editeur : Gallimard
@@ -648,7 +668,9 @@
           <t>Le film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un film a été tiré du premier et du second tomes. Il est sorti en salles le 25 juillet 2008 en Angleterre (Angus, Thongs and Perfect Snogging). En France, il est sorti en DVD le 1er décembre 2009 sous le titre Le Journal intime de Georgia Nicolson.
 </t>
